--- a/biology/Histoire de la zoologie et de la botanique/Salvador_Moyà-Solà/Salvador_Moyà-Solà.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Salvador_Moyà-Solà/Salvador_Moyà-Solà.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Salvador_Moy%C3%A0-Sol%C3%A0</t>
+          <t>Salvador_Moyà-Solà</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salvador Moyà-Solà, né en 1955 à Palma de Majorque (îles Baléares), est un paléoprimatologue espagnol, spécialisé dans les singes européens du Miocène.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Salvador_Moy%C3%A0-Sol%C3%A0</t>
+          <t>Salvador_Moyà-Solà</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1983 à 2006, Salvador Moyà-Solà a travaillé comme chercheur puis directeur de l'Institut catalan de paléontologíe Miquel Crusafont, à Sabadell, en Catalogne, qui dépend du Conseil provincial de Barcelone. En 2006, il a rejoint en tant que directeur de recherche l'unité d'anthropologie physique de l'université autonome de Barcelone.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Salvador_Moy%C3%A0-Sol%C3%A0</t>
+          <t>Salvador_Moyà-Solà</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Salvador Moyà-Solà est un expert des singes du Miocène. Il a dirigé deux importantes campagnes de fouilles en Catalogne.
 Sur le site de Can Llobateres, à Sabadell (province de Barcelone), il a trouvé le spécimen fossile le plus complet connu à ce jour (surnommé "Jordi") de l'espèce Hispanopithecus laietanus, premier singe fossile découvert en Catalogne, par les paléontologues espagnols Miguel Crusafont et José Fernández Villalta en 1944.
 À Els Hostalets de Pierola (province de Barcelone), il a trouvé :
-en 2002, sur le site de Barranc de Can Vila 1, un squelette fossile semi-complet (surnommé Pau) de la nouvelle espèce Pierolapithecus catalaunicus, décrite en 2004[1] ;
-En 2005, sur le site d'Abocador de Can Mata, des éléments fossiles (surnommés Lluc) de la nouvelle espèce Anoiapithecus brevirostris, décrite en 2009[2].</t>
+en 2002, sur le site de Barranc de Can Vila 1, un squelette fossile semi-complet (surnommé Pau) de la nouvelle espèce Pierolapithecus catalaunicus, décrite en 2004 ;
+En 2005, sur le site d'Abocador de Can Mata, des éléments fossiles (surnommés Lluc) de la nouvelle espèce Anoiapithecus brevirostris, décrite en 2009.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Salvador_Moy%C3%A0-Sol%C3%A0</t>
+          <t>Salvador_Moyà-Solà</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Meike Köhler et Salvador Moyà-Solà, « A finding of Oligocene primates on the European continent », PNAS, vol. 96, no 25,‎ 7 décembre 1999, p. 14664-14667 (lire en ligne)
 (en) Salvador Moyà-Solà, Meike Köhler, David M. Alba, Isaac Casanovas-Vilar et Jordi Galindo, « Pierolapithecus catalaunicus, a new Middle Miocene Great Ape from Spain », Science, vol. 306, no 5700,‎ 19 novembre 2004, p. 1339-1344 (lire en ligne)
